--- a/biology/Botanique/Cannaceae/Cannaceae.xlsx
+++ b/biology/Botanique/Cannaceae/Cannaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cannacées (Cannaceae Juss. 1789) regroupe des plantes monocotylédones. Elle comprend plusieurs espèces appartenant à un seul genre : Canna.
 Ce sont des plantes herbacées des régions tropicales et subtropicales d'Amérique. Des hybrides de Canna sont très fréquemment utilisés comme plantes florales ornementales.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Canna dont la racine cann, qui fut successivement hébraïque, puis grecque, puis  latine, signifie « roseau, canne à sucre »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Canna dont la racine cann, qui fut successivement hébraïque, puis grecque, puis  latine, signifie « roseau, canne à sucre ».
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[2], Angiosperm Phylogeny Website                        (21 mai 2010)[3], NCBI  (22 avr. 2010)[4], DELTA Angio           (22 avr. 2010)[5] &amp; ITIS      (22 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (22 avr. 2010), DELTA Angio           (22 avr. 2010) &amp; ITIS      (22 avr. 2010) :
 genre Canna  L. (1753)</t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) :
 genre Canna  L. (1753)
 Canna bangii  Kraenzl. (1912)
 Canna flaccida  Salisb. (1791)
@@ -590,7 +608,7 @@
 Canna paniculata  Ruiz &amp; Pav. (1798)
 Canna pedunculata  Sims (1822)
 Canna tuerckheimii  Kraenzl. (1912)
-Selon NCBI  (22 avr. 2010)[4] :
+Selon NCBI  (22 avr. 2010) :
 genre Canna
 Canna flaccida
 Canna glauca
@@ -628,9 +646,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 sept. 2012)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 sept. 2012) :
 Canna achiras Gillies ex D.Don, (1830) = Canna indica  L. (1753)
 Canna altensteinii Bouché, (1837) = Canna indica  L. (1753)
 Canna amabilis T.Koyama &amp; Nob.Tanaka, (2000) = Canna indica  L. (1753)
